--- a/biology/Médecine/Comité_de_lutte_contre_les_infections_nosocomiales/Comité_de_lutte_contre_les_infections_nosocomiales.xlsx
+++ b/biology/Médecine/Comité_de_lutte_contre_les_infections_nosocomiales/Comité_de_lutte_contre_les_infections_nosocomiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_lutte_contre_les_infections_nosocomiales</t>
+          <t>Comité_de_lutte_contre_les_infections_nosocomiales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Comité de lutte contre les infections nosocomiales (CLIN), est une instance d'État française. Son installation a été rendue obligatoire par un décret de mai 1988[1]. Sa mise en place a été imposée dans tous les établissements publics ou privés participants à l'exercice du service public[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Comité de lutte contre les infections nosocomiales (CLIN), est une instance d'État française. Son installation a été rendue obligatoire par un décret de mai 1988. Sa mise en place a été imposée dans tous les établissements publics ou privés participants à l'exercice du service public,. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_lutte_contre_les_infections_nosocomiales</t>
+          <t>Comité_de_lutte_contre_les_infections_nosocomiales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Recommandations aux établissements de soins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CLIN organise la surveillance et la prévention des infections nosocomiales en guidant la formation du personnel hospitalier, la prévention et en publiant les données de la surveillance[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CLIN organise la surveillance et la prévention des infections nosocomiales en guidant la formation du personnel hospitalier, la prévention et en publiant les données de la surveillance.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_lutte_contre_les_infections_nosocomiales</t>
+          <t>Comité_de_lutte_contre_les_infections_nosocomiales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Centres de prévention des infections associées aux soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'implantation du CLIN au niveau régional se fait à travers les CClin (Centres de coordination de la lutte contre les infections nosocomiales) devenus CPias (Centres de prévention des infections associées aux soins) depuis 2017[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'implantation du CLIN au niveau régional se fait à travers les CClin (Centres de coordination de la lutte contre les infections nosocomiales) devenus CPias (Centres de prévention des infections associées aux soins) depuis 2017.
 </t>
         </is>
       </c>
